--- a/baseline_use_correlation.xlsx
+++ b/baseline_use_correlation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d162e263eb088d0f/Documents/Y5S2/Machine_Learning_for_Biosci/Project1_updated_021125/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d162e263eb088d0f/Documents/Y5S2/Machine_Learning_for_Biosci/Project1_updated_021125/grnreconstruction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{887295A5-F8BF-9442-A59D-70E1C734794E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71860ABC-77C7-4EE0-93AC-6B12EF87FC57}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{887295A5-F8BF-9442-A59D-70E1C734794E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0527F977-7F58-4A23-9BAE-266E7A3DE8C9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5700" yWindow="340" windowWidth="16790" windowHeight="9710" activeTab="2" xr2:uid="{34084561-DE52-CA46-8661-B920370BF544}"/>
+    <workbookView minimized="1" xWindow="5610" yWindow="340" windowWidth="16790" windowHeight="9710" xr2:uid="{34084561-DE52-CA46-8661-B920370BF544}"/>
   </bookViews>
   <sheets>
     <sheet name="5_mr_50_cond" sheetId="1" r:id="rId1"/>
@@ -98,14 +98,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +120,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952E3B32-3DCF-3C4A-8CAA-C186872CD9D3}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,15 +459,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>0.60061443932411596</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2">
+        <f>AVERAGE(B2:B101)</f>
+        <v>0.67254502674029448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>101</v>
       </c>
@@ -472,7 +479,7 @@
         <v>0.914089347079037</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>102</v>
       </c>
@@ -480,7 +487,7 @@
         <v>0.76288659793814395</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>103</v>
       </c>
@@ -488,7 +495,7 @@
         <v>0.61170212765957399</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>104</v>
       </c>
@@ -496,7 +503,7 @@
         <v>0.73177083333333304</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>105</v>
       </c>
@@ -504,7 +511,7 @@
         <v>0.64539007092198497</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>106</v>
       </c>
@@ -512,7 +519,7 @@
         <v>0.56221198156681995</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>107</v>
       </c>
@@ -520,7 +527,7 @@
         <v>0.64516129032257996</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>108</v>
       </c>
@@ -528,7 +535,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>109</v>
       </c>
@@ -536,7 +543,7 @@
         <v>0.85567010309278302</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>110</v>
       </c>
@@ -544,7 +551,7 @@
         <v>0.73177083333333304</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>111</v>
       </c>
@@ -552,7 +559,7 @@
         <v>0.671875</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>112</v>
       </c>
@@ -560,7 +567,7 @@
         <v>0.76842105263157801</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>113</v>
       </c>
@@ -568,7 +575,7 @@
         <v>0.67434715821812596</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>114</v>
       </c>
@@ -1263,15 +1270,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E4CD20-DF4E-6345-BE84-97F1BA9EF0D2}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,15 +1286,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>0.94270833333333304</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2">
+        <f>AVERAGE(B2:B101)</f>
+        <v>0.84413434155883593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1295,7 +1306,7 @@
         <v>0.67021276595744605</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -1303,7 +1314,7 @@
         <v>0.91666666666666596</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -1311,7 +1322,7 @@
         <v>0.98177083333333304</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -1319,7 +1330,7 @@
         <v>0.80842105263157804</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>105</v>
       </c>
@@ -1327,7 +1338,7 @@
         <v>0.87789473684210495</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>106</v>
       </c>
@@ -1335,7 +1346,7 @@
         <v>0.731958762886597</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>107</v>
       </c>
@@ -1343,7 +1354,7 @@
         <v>0.95157894736842097</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>108</v>
       </c>
@@ -1351,7 +1362,7 @@
         <v>0.80729166666666596</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>109</v>
       </c>
@@ -1359,7 +1370,7 @@
         <v>0.75789473684210495</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>110</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>0.76631578947368395</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>111</v>
       </c>
@@ -1375,7 +1386,7 @@
         <v>0.91489361702127603</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>112</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>0.68663594470045997</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>113</v>
       </c>
@@ -1391,7 +1402,7 @@
         <v>0.56631578947368399</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>114</v>
       </c>
@@ -2088,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C9264B-832A-274C-B51C-D2C01DB689E7}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -2109,6 +2120,10 @@
       <c r="B2">
         <v>0.98526315789473595</v>
       </c>
+      <c r="D2">
+        <f>AVERAGE(B2:B101)</f>
+        <v>0.91633927844485796</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
@@ -2170,7 +2185,6 @@
       <c r="B9">
         <v>0.95789473684210502</v>
       </c>
-      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
